--- a/output/phones.xlsx
+++ b/output/phones.xlsx
@@ -3484,10 +3484,10 @@
     <t>916101494.0</t>
   </si>
   <si>
-    <t>Valido</t>
-  </si>
-  <si>
-    <t>Invalido</t>
+    <t>VALIDO</t>
+  </si>
+  <si>
+    <t>INVALIDO</t>
   </si>
 </sst>
 </file>

--- a/output/phones.xlsx
+++ b/output/phones.xlsx
@@ -1828,1660 +1828,1660 @@
     <t>50346472-1</t>
   </si>
   <si>
-    <t>9963328857.0</t>
-  </si>
-  <si>
-    <t>9356588211.0</t>
-  </si>
-  <si>
-    <t>9361086998.0</t>
-  </si>
-  <si>
-    <t>9797003451.0</t>
-  </si>
-  <si>
-    <t>9789888197.0</t>
-  </si>
-  <si>
-    <t>9798353416.0</t>
-  </si>
-  <si>
-    <t>9944342254.0</t>
-  </si>
-  <si>
-    <t>9582178044.0</t>
-  </si>
-  <si>
-    <t>9434324579.0</t>
-  </si>
-  <si>
-    <t>9970136234.0</t>
-  </si>
-  <si>
-    <t>9926264919.0</t>
-  </si>
-  <si>
-    <t>9372084765.0</t>
-  </si>
-  <si>
-    <t>9146226667.0</t>
-  </si>
-  <si>
-    <t>9508555926.0</t>
-  </si>
-  <si>
-    <t>9057955337.0</t>
-  </si>
-  <si>
-    <t>9565754387.0</t>
-  </si>
-  <si>
-    <t>9931000068.0</t>
-  </si>
-  <si>
-    <t>9099367298.0</t>
-  </si>
-  <si>
-    <t>9208244278.0</t>
-  </si>
-  <si>
-    <t>9361588059.0</t>
-  </si>
-  <si>
-    <t>9307253811.0</t>
-  </si>
-  <si>
-    <t>9722400163.0</t>
-  </si>
-  <si>
-    <t>9801128302.0</t>
-  </si>
-  <si>
-    <t>9728527807.0</t>
-  </si>
-  <si>
-    <t>9325574406.0</t>
-  </si>
-  <si>
-    <t>9414523997.0</t>
-  </si>
-  <si>
-    <t>9582601138.0</t>
-  </si>
-  <si>
-    <t>9593610295.0</t>
-  </si>
-  <si>
-    <t>9885672896.0</t>
-  </si>
-  <si>
-    <t>9100105996.0</t>
-  </si>
-  <si>
-    <t>9654041148.0</t>
-  </si>
-  <si>
-    <t>9974463535.0</t>
-  </si>
-  <si>
-    <t>9429351102.0</t>
-  </si>
-  <si>
-    <t>9946724970.0</t>
-  </si>
-  <si>
-    <t>9994171355.0</t>
-  </si>
-  <si>
-    <t>9821093269.0</t>
-  </si>
-  <si>
-    <t>9154174891.0</t>
-  </si>
-  <si>
-    <t>9177092536.0</t>
-  </si>
-  <si>
-    <t>9564031034.0</t>
-  </si>
-  <si>
-    <t>9310538332.0</t>
-  </si>
-  <si>
-    <t>9340791546.0</t>
-  </si>
-  <si>
-    <t>9009717911.0</t>
-  </si>
-  <si>
-    <t>9545172655.0</t>
-  </si>
-  <si>
-    <t>9714650954.0</t>
-  </si>
-  <si>
-    <t>9229485462.0</t>
-  </si>
-  <si>
-    <t>9643198043.0</t>
-  </si>
-  <si>
-    <t>9521350370.0</t>
-  </si>
-  <si>
-    <t>9755209297.0</t>
-  </si>
-  <si>
-    <t>9447540050.0</t>
-  </si>
-  <si>
-    <t>9577650655.0</t>
-  </si>
-  <si>
-    <t>9766553533.0</t>
-  </si>
-  <si>
-    <t>9231963524.0</t>
-  </si>
-  <si>
-    <t>9072484039.0</t>
-  </si>
-  <si>
-    <t>9290522065.0</t>
-  </si>
-  <si>
-    <t>9419775198.0</t>
-  </si>
-  <si>
-    <t>9204861521.0</t>
-  </si>
-  <si>
-    <t>9836116802.0</t>
-  </si>
-  <si>
-    <t>9258041104.0</t>
-  </si>
-  <si>
-    <t>9190099847.0</t>
-  </si>
-  <si>
-    <t>9335044087.0</t>
-  </si>
-  <si>
-    <t>9679724418.0</t>
-  </si>
-  <si>
-    <t>9822147704.0</t>
-  </si>
-  <si>
-    <t>9821431342.0</t>
-  </si>
-  <si>
-    <t>9829452369.0</t>
-  </si>
-  <si>
-    <t>9172127076.0</t>
-  </si>
-  <si>
-    <t>9965708094.0</t>
-  </si>
-  <si>
-    <t>9323860850.0</t>
-  </si>
-  <si>
-    <t>9592433849.0</t>
-  </si>
-  <si>
-    <t>9572703383.0</t>
-  </si>
-  <si>
-    <t>9415198517.0</t>
-  </si>
-  <si>
-    <t>9600228652.0</t>
-  </si>
-  <si>
-    <t>9661292387.0</t>
-  </si>
-  <si>
-    <t>9055962758.0</t>
-  </si>
-  <si>
-    <t>9717473224.0</t>
-  </si>
-  <si>
-    <t>9603094774.0</t>
-  </si>
-  <si>
-    <t>946124538.0</t>
-  </si>
-  <si>
-    <t>962835607.0</t>
-  </si>
-  <si>
-    <t>941343801.0</t>
-  </si>
-  <si>
-    <t>935450839.0</t>
-  </si>
-  <si>
-    <t>975093395.0</t>
-  </si>
-  <si>
-    <t>997885213.0</t>
-  </si>
-  <si>
-    <t>906095226.0</t>
-  </si>
-  <si>
-    <t>925184794.0</t>
-  </si>
-  <si>
-    <t>953734712.0</t>
-  </si>
-  <si>
-    <t>984379019.0</t>
-  </si>
-  <si>
-    <t>909814072.0</t>
-  </si>
-  <si>
-    <t>954547724.0</t>
-  </si>
-  <si>
-    <t>974722376.0</t>
-  </si>
-  <si>
-    <t>946033879.0</t>
-  </si>
-  <si>
-    <t>957670956.0</t>
-  </si>
-  <si>
-    <t>921846698.0</t>
-  </si>
-  <si>
-    <t>972444328.0</t>
-  </si>
-  <si>
-    <t>924639024.0</t>
-  </si>
-  <si>
-    <t>993612937.0</t>
-  </si>
-  <si>
-    <t>939812052.0</t>
-  </si>
-  <si>
-    <t>961628535.0</t>
-  </si>
-  <si>
-    <t>993281701.0</t>
-  </si>
-  <si>
-    <t>928202868.0</t>
-  </si>
-  <si>
-    <t>984846103.0</t>
-  </si>
-  <si>
-    <t>933349956.0</t>
-  </si>
-  <si>
-    <t>931589108.0</t>
-  </si>
-  <si>
-    <t>905424321.0</t>
-  </si>
-  <si>
-    <t>906470535.0</t>
-  </si>
-  <si>
-    <t>998569462.0</t>
-  </si>
-  <si>
-    <t>962403986.0</t>
-  </si>
-  <si>
-    <t>989305757.0</t>
-  </si>
-  <si>
-    <t>995179807.0</t>
-  </si>
-  <si>
-    <t>933230994.0</t>
-  </si>
-  <si>
-    <t>942059266.0</t>
-  </si>
-  <si>
-    <t>955258299.0</t>
-  </si>
-  <si>
-    <t>977436473.0</t>
-  </si>
-  <si>
-    <t>973436383.0</t>
-  </si>
-  <si>
-    <t>921112944.0</t>
-  </si>
-  <si>
-    <t>974492741.0</t>
-  </si>
-  <si>
-    <t>922829971.0</t>
-  </si>
-  <si>
-    <t>916414064.0</t>
-  </si>
-  <si>
-    <t>999728049.0</t>
-  </si>
-  <si>
-    <t>928198708.0</t>
-  </si>
-  <si>
-    <t>940784099.0</t>
-  </si>
-  <si>
-    <t>964570002.0</t>
-  </si>
-  <si>
-    <t>947122514.0</t>
-  </si>
-  <si>
-    <t>961512368.0</t>
-  </si>
-  <si>
-    <t>900684909.0</t>
-  </si>
-  <si>
-    <t>922030282.0</t>
-  </si>
-  <si>
-    <t>948488685.0</t>
-  </si>
-  <si>
-    <t>967702453.0</t>
-  </si>
-  <si>
-    <t>972702528.0</t>
-  </si>
-  <si>
-    <t>983667348.0</t>
-  </si>
-  <si>
-    <t>961894434.0</t>
-  </si>
-  <si>
-    <t>992419516.0</t>
-  </si>
-  <si>
-    <t>911510020.0</t>
-  </si>
-  <si>
-    <t>917498442.0</t>
-  </si>
-  <si>
-    <t>981021516.0</t>
-  </si>
-  <si>
-    <t>981833577.0</t>
-  </si>
-  <si>
-    <t>982835544.0</t>
-  </si>
-  <si>
-    <t>978811733.0</t>
-  </si>
-  <si>
-    <t>996466488.0</t>
-  </si>
-  <si>
-    <t>911297164.0</t>
-  </si>
-  <si>
-    <t>984762348.0</t>
-  </si>
-  <si>
-    <t>981487015.0</t>
-  </si>
-  <si>
-    <t>974025470.0</t>
-  </si>
-  <si>
-    <t>922082673.0</t>
-  </si>
-  <si>
-    <t>906523792.0</t>
-  </si>
-  <si>
-    <t>950637159.0</t>
-  </si>
-  <si>
-    <t>931083962.0</t>
-  </si>
-  <si>
-    <t>979794608.0</t>
-  </si>
-  <si>
-    <t>953209682.0</t>
-  </si>
-  <si>
-    <t>960166915.0</t>
-  </si>
-  <si>
-    <t>945127649.0</t>
-  </si>
-  <si>
-    <t>976215705.0</t>
-  </si>
-  <si>
-    <t>923114249.0</t>
-  </si>
-  <si>
-    <t>939161098.0</t>
-  </si>
-  <si>
-    <t>977872488.0</t>
-  </si>
-  <si>
-    <t>994312185.0</t>
-  </si>
-  <si>
-    <t>924712734.0</t>
-  </si>
-  <si>
-    <t>996578377.0</t>
-  </si>
-  <si>
-    <t>975771224.0</t>
-  </si>
-  <si>
-    <t>996661171.0</t>
-  </si>
-  <si>
-    <t>953505042.0</t>
-  </si>
-  <si>
-    <t>900227034.0</t>
-  </si>
-  <si>
-    <t>944640540.0</t>
-  </si>
-  <si>
-    <t>908253646.0</t>
-  </si>
-  <si>
-    <t>957734704.0</t>
-  </si>
-  <si>
-    <t>979455416.0</t>
-  </si>
-  <si>
-    <t>990378971.0</t>
-  </si>
-  <si>
-    <t>949490356.0</t>
-  </si>
-  <si>
-    <t>919249545.0</t>
-  </si>
-  <si>
-    <t>994181422.0</t>
-  </si>
-  <si>
-    <t>947095333.0</t>
-  </si>
-  <si>
-    <t>936622831.0</t>
-  </si>
-  <si>
-    <t>956249006.0</t>
-  </si>
-  <si>
-    <t>909782193.0</t>
-  </si>
-  <si>
-    <t>987285889.0</t>
-  </si>
-  <si>
-    <t>969401798.0</t>
-  </si>
-  <si>
-    <t>900920110.0</t>
-  </si>
-  <si>
-    <t>971743276.0</t>
-  </si>
-  <si>
-    <t>930858326.0</t>
-  </si>
-  <si>
-    <t>996637766.0</t>
-  </si>
-  <si>
-    <t>943486875.0</t>
-  </si>
-  <si>
-    <t>901409181.0</t>
-  </si>
-  <si>
-    <t>966331488.0</t>
-  </si>
-  <si>
-    <t>980929739.0</t>
-  </si>
-  <si>
-    <t>926450371.0</t>
-  </si>
-  <si>
-    <t>957411371.0</t>
-  </si>
-  <si>
-    <t>977714417.0</t>
-  </si>
-  <si>
-    <t>979949407.0</t>
-  </si>
-  <si>
-    <t>941302215.0</t>
-  </si>
-  <si>
-    <t>954162237.0</t>
-  </si>
-  <si>
-    <t>999899531.0</t>
-  </si>
-  <si>
-    <t>930017059.0</t>
-  </si>
-  <si>
-    <t>909240206.0</t>
-  </si>
-  <si>
-    <t>994363497.0</t>
-  </si>
-  <si>
-    <t>976574705.0</t>
-  </si>
-  <si>
-    <t>962172389.0</t>
-  </si>
-  <si>
-    <t>918245280.0</t>
-  </si>
-  <si>
-    <t>908097305.0</t>
-  </si>
-  <si>
-    <t>900751435.0</t>
-  </si>
-  <si>
-    <t>900469686.0</t>
-  </si>
-  <si>
-    <t>976794945.0</t>
-  </si>
-  <si>
-    <t>977538222.0</t>
-  </si>
-  <si>
-    <t>913299646.0</t>
-  </si>
-  <si>
-    <t>962981016.0</t>
-  </si>
-  <si>
-    <t>928293962.0</t>
-  </si>
-  <si>
-    <t>975057652.0</t>
-  </si>
-  <si>
-    <t>925004823.0</t>
-  </si>
-  <si>
-    <t>982469340.0</t>
-  </si>
-  <si>
-    <t>936851597.0</t>
-  </si>
-  <si>
-    <t>915255533.0</t>
-  </si>
-  <si>
-    <t>951464940.0</t>
-  </si>
-  <si>
-    <t>945736797.0</t>
-  </si>
-  <si>
-    <t>972427437.0</t>
-  </si>
-  <si>
-    <t>921788865.0</t>
-  </si>
-  <si>
-    <t>983015714.0</t>
-  </si>
-  <si>
-    <t>956833844.0</t>
-  </si>
-  <si>
-    <t>991388633.0</t>
-  </si>
-  <si>
-    <t>944145805.0</t>
-  </si>
-  <si>
-    <t>998935572.0</t>
-  </si>
-  <si>
-    <t>927522747.0</t>
-  </si>
-  <si>
-    <t>983420058.0</t>
-  </si>
-  <si>
-    <t>905850843.0</t>
-  </si>
-  <si>
-    <t>917186233.0</t>
-  </si>
-  <si>
-    <t>933703509.0</t>
-  </si>
-  <si>
-    <t>972721384.0</t>
-  </si>
-  <si>
-    <t>915573607.0</t>
-  </si>
-  <si>
-    <t>985495241.0</t>
-  </si>
-  <si>
-    <t>903832706.0</t>
-  </si>
-  <si>
-    <t>994654379.0</t>
-  </si>
-  <si>
-    <t>986811576.0</t>
-  </si>
-  <si>
-    <t>993412538.0</t>
-  </si>
-  <si>
-    <t>945739148.0</t>
-  </si>
-  <si>
-    <t>947920853.0</t>
-  </si>
-  <si>
-    <t>993121191.0</t>
-  </si>
-  <si>
-    <t>943632711.0</t>
-  </si>
-  <si>
-    <t>994229064.0</t>
-  </si>
-  <si>
-    <t>955854059.0</t>
-  </si>
-  <si>
-    <t>998506438.0</t>
-  </si>
-  <si>
-    <t>942765077.0</t>
-  </si>
-  <si>
-    <t>979573766.0</t>
-  </si>
-  <si>
-    <t>991871563.0</t>
-  </si>
-  <si>
-    <t>901298128.0</t>
-  </si>
-  <si>
-    <t>950419950.0</t>
-  </si>
-  <si>
-    <t>955095263.0</t>
-  </si>
-  <si>
-    <t>975343626.0</t>
-  </si>
-  <si>
-    <t>980288218.0</t>
-  </si>
-  <si>
-    <t>982159252.0</t>
-  </si>
-  <si>
-    <t>987521801.0</t>
-  </si>
-  <si>
-    <t>956646364.0</t>
-  </si>
-  <si>
-    <t>945214389.0</t>
-  </si>
-  <si>
-    <t>959034520.0</t>
-  </si>
-  <si>
-    <t>968181754.0</t>
-  </si>
-  <si>
-    <t>992121692.0</t>
-  </si>
-  <si>
-    <t>983680136.0</t>
-  </si>
-  <si>
-    <t>915033223.0</t>
-  </si>
-  <si>
-    <t>978604308.0</t>
-  </si>
-  <si>
-    <t>943676001.0</t>
-  </si>
-  <si>
-    <t>990001194.0</t>
-  </si>
-  <si>
-    <t>987645357.0</t>
-  </si>
-  <si>
-    <t>976413217.0</t>
-  </si>
-  <si>
-    <t>962448773.0</t>
-  </si>
-  <si>
-    <t>911963239.0</t>
-  </si>
-  <si>
-    <t>933095994.0</t>
-  </si>
-  <si>
-    <t>999045285.0</t>
-  </si>
-  <si>
-    <t>983637467.0</t>
-  </si>
-  <si>
-    <t>968359918.0</t>
-  </si>
-  <si>
-    <t>980353593.0</t>
-  </si>
-  <si>
-    <t>981390288.0</t>
-  </si>
-  <si>
-    <t>938275291.0</t>
-  </si>
-  <si>
-    <t>963628654.0</t>
-  </si>
-  <si>
-    <t>974199193.0</t>
-  </si>
-  <si>
-    <t>929625406.0</t>
-  </si>
-  <si>
-    <t>984678319.0</t>
-  </si>
-  <si>
-    <t>949868104.0</t>
-  </si>
-  <si>
-    <t>987374080.0</t>
-  </si>
-  <si>
-    <t>994709426.0</t>
-  </si>
-  <si>
-    <t>914133080.0</t>
-  </si>
-  <si>
-    <t>982018545.0</t>
-  </si>
-  <si>
-    <t>952435902.0</t>
-  </si>
-  <si>
-    <t>925462804.0</t>
-  </si>
-  <si>
-    <t>953012423.0</t>
-  </si>
-  <si>
-    <t>957965723.0</t>
-  </si>
-  <si>
-    <t>904554881.0</t>
-  </si>
-  <si>
-    <t>924855292.0</t>
-  </si>
-  <si>
-    <t>947482820.0</t>
-  </si>
-  <si>
-    <t>926842858.0</t>
-  </si>
-  <si>
-    <t>903643626.0</t>
-  </si>
-  <si>
-    <t>948173982.0</t>
-  </si>
-  <si>
-    <t>974311105.0</t>
-  </si>
-  <si>
-    <t>923522302.0</t>
-  </si>
-  <si>
-    <t>936986483.0</t>
-  </si>
-  <si>
-    <t>906902137.0</t>
-  </si>
-  <si>
-    <t>909299250.0</t>
-  </si>
-  <si>
-    <t>972539096.0</t>
-  </si>
-  <si>
-    <t>994222117.0</t>
-  </si>
-  <si>
-    <t>979047109.0</t>
-  </si>
-  <si>
-    <t>995133408.0</t>
-  </si>
-  <si>
-    <t>925211569.0</t>
-  </si>
-  <si>
-    <t>982678014.0</t>
-  </si>
-  <si>
-    <t>945717114.0</t>
-  </si>
-  <si>
-    <t>948290324.0</t>
-  </si>
-  <si>
-    <t>948888931.0</t>
-  </si>
-  <si>
-    <t>975290701.0</t>
-  </si>
-  <si>
-    <t>915955811.0</t>
-  </si>
-  <si>
-    <t>996037504.0</t>
-  </si>
-  <si>
-    <t>947520728.0</t>
-  </si>
-  <si>
-    <t>985250974.0</t>
-  </si>
-  <si>
-    <t>985862355.0</t>
-  </si>
-  <si>
-    <t>978225786.0</t>
-  </si>
-  <si>
-    <t>960829333.0</t>
-  </si>
-  <si>
-    <t>930722019.0</t>
-  </si>
-  <si>
-    <t>918448213.0</t>
-  </si>
-  <si>
-    <t>926114407.0</t>
-  </si>
-  <si>
-    <t>938243576.0</t>
-  </si>
-  <si>
-    <t>957033412.0</t>
-  </si>
-  <si>
-    <t>945614989.0</t>
-  </si>
-  <si>
-    <t>964138090.0</t>
-  </si>
-  <si>
-    <t>931425387.0</t>
-  </si>
-  <si>
-    <t>997785302.0</t>
-  </si>
-  <si>
-    <t>910080861.0</t>
-  </si>
-  <si>
-    <t>983419104.0</t>
-  </si>
-  <si>
-    <t>931596636.0</t>
-  </si>
-  <si>
-    <t>948069148.0</t>
-  </si>
-  <si>
-    <t>952079041.0</t>
-  </si>
-  <si>
-    <t>946353479.0</t>
-  </si>
-  <si>
-    <t>969663238.0</t>
-  </si>
-  <si>
-    <t>900644701.0</t>
-  </si>
-  <si>
-    <t>921117208.0</t>
-  </si>
-  <si>
-    <t>986962405.0</t>
-  </si>
-  <si>
-    <t>916217602.0</t>
-  </si>
-  <si>
-    <t>997928736.0</t>
-  </si>
-  <si>
-    <t>935679417.0</t>
-  </si>
-  <si>
-    <t>934797218.0</t>
-  </si>
-  <si>
-    <t>973708438.0</t>
-  </si>
-  <si>
-    <t>958165857.0</t>
-  </si>
-  <si>
-    <t>988236906.0</t>
-  </si>
-  <si>
-    <t>962106011.0</t>
-  </si>
-  <si>
-    <t>923478573.0</t>
-  </si>
-  <si>
-    <t>973330453.0</t>
-  </si>
-  <si>
-    <t>932737867.0</t>
-  </si>
-  <si>
-    <t>994059492.0</t>
-  </si>
-  <si>
-    <t>962824006.0</t>
-  </si>
-  <si>
-    <t>919920646.0</t>
-  </si>
-  <si>
-    <t>928585204.0</t>
-  </si>
-  <si>
-    <t>990144186.0</t>
-  </si>
-  <si>
-    <t>970485367.0</t>
-  </si>
-  <si>
-    <t>959135173.0</t>
-  </si>
-  <si>
-    <t>950005162.0</t>
-  </si>
-  <si>
-    <t>988111341.0</t>
-  </si>
-  <si>
-    <t>990928553.0</t>
-  </si>
-  <si>
-    <t>976211890.0</t>
-  </si>
-  <si>
-    <t>954100274.0</t>
-  </si>
-  <si>
-    <t>986604970.0</t>
-  </si>
-  <si>
-    <t>907527977.0</t>
-  </si>
-  <si>
-    <t>907396436.0</t>
-  </si>
-  <si>
-    <t>960792738.0</t>
-  </si>
-  <si>
-    <t>974524473.0</t>
-  </si>
-  <si>
-    <t>970500756.0</t>
-  </si>
-  <si>
-    <t>908498885.0</t>
-  </si>
-  <si>
-    <t>915195406.0</t>
-  </si>
-  <si>
-    <t>993815342.0</t>
-  </si>
-  <si>
-    <t>950512388.0</t>
-  </si>
-  <si>
-    <t>927591313.0</t>
-  </si>
-  <si>
-    <t>967593914.0</t>
-  </si>
-  <si>
-    <t>905547507.0</t>
-  </si>
-  <si>
-    <t>998880567.0</t>
-  </si>
-  <si>
-    <t>983597301.0</t>
-  </si>
-  <si>
-    <t>912380626.0</t>
-  </si>
-  <si>
-    <t>992841943.0</t>
-  </si>
-  <si>
-    <t>901124923.0</t>
-  </si>
-  <si>
-    <t>962820826.0</t>
-  </si>
-  <si>
-    <t>961325416.0</t>
-  </si>
-  <si>
-    <t>962968927.0</t>
-  </si>
-  <si>
-    <t>900977887.0</t>
-  </si>
-  <si>
-    <t>927505747.0</t>
-  </si>
-  <si>
-    <t>967296837.0</t>
-  </si>
-  <si>
-    <t>972411251.0</t>
-  </si>
-  <si>
-    <t>916503535.0</t>
-  </si>
-  <si>
-    <t>914778722.0</t>
-  </si>
-  <si>
-    <t>987399464.0</t>
-  </si>
-  <si>
-    <t>929873779.0</t>
-  </si>
-  <si>
-    <t>930342446.0</t>
-  </si>
-  <si>
-    <t>901004077.0</t>
-  </si>
-  <si>
-    <t>946725832.0</t>
-  </si>
-  <si>
-    <t>962064803.0</t>
-  </si>
-  <si>
-    <t>963575058.0</t>
-  </si>
-  <si>
-    <t>947135034.0</t>
-  </si>
-  <si>
-    <t>947310620.0</t>
-  </si>
-  <si>
-    <t>960117771.0</t>
-  </si>
-  <si>
-    <t>936167768.0</t>
-  </si>
-  <si>
-    <t>976419373.0</t>
-  </si>
-  <si>
-    <t>931254124.0</t>
-  </si>
-  <si>
-    <t>929110523.0</t>
-  </si>
-  <si>
-    <t>938935506.0</t>
-  </si>
-  <si>
-    <t>990053118.0</t>
-  </si>
-  <si>
-    <t>913462610.0</t>
-  </si>
-  <si>
-    <t>923077847.0</t>
-  </si>
-  <si>
-    <t>934478918.0</t>
-  </si>
-  <si>
-    <t>908328199.0</t>
-  </si>
-  <si>
-    <t>973136276.0</t>
-  </si>
-  <si>
-    <t>988221431.0</t>
-  </si>
-  <si>
-    <t>939482896.0</t>
-  </si>
-  <si>
-    <t>929927948.0</t>
-  </si>
-  <si>
-    <t>991380457.0</t>
-  </si>
-  <si>
-    <t>917438385.0</t>
-  </si>
-  <si>
-    <t>914714270.0</t>
-  </si>
-  <si>
-    <t>951885434.0</t>
-  </si>
-  <si>
-    <t>962134662.0</t>
-  </si>
-  <si>
-    <t>973511239.0</t>
-  </si>
-  <si>
-    <t>926680761.0</t>
-  </si>
-  <si>
-    <t>929639469.0</t>
-  </si>
-  <si>
-    <t>900696177.0</t>
-  </si>
-  <si>
-    <t>940824386.0</t>
-  </si>
-  <si>
-    <t>904674105.0</t>
-  </si>
-  <si>
-    <t>926230630.0</t>
-  </si>
-  <si>
-    <t>968749682.0</t>
-  </si>
-  <si>
-    <t>951346117.0</t>
-  </si>
-  <si>
-    <t>917164924.0</t>
-  </si>
-  <si>
-    <t>945875028.0</t>
-  </si>
-  <si>
-    <t>983149403.0</t>
-  </si>
-  <si>
-    <t>998956431.0</t>
-  </si>
-  <si>
-    <t>981212833.0</t>
-  </si>
-  <si>
-    <t>930910529.0</t>
-  </si>
-  <si>
-    <t>924815901.0</t>
-  </si>
-  <si>
-    <t>920814795.0</t>
-  </si>
-  <si>
-    <t>912066831.0</t>
-  </si>
-  <si>
-    <t>961638291.0</t>
-  </si>
-  <si>
-    <t>927489621.0</t>
-  </si>
-  <si>
-    <t>995942688.0</t>
-  </si>
-  <si>
-    <t>960327503.0</t>
-  </si>
-  <si>
-    <t>929879465.0</t>
-  </si>
-  <si>
-    <t>964251705.0</t>
-  </si>
-  <si>
-    <t>916721813.0</t>
-  </si>
-  <si>
-    <t>998872132.0</t>
-  </si>
-  <si>
-    <t>934106586.0</t>
-  </si>
-  <si>
-    <t>952501545.0</t>
-  </si>
-  <si>
-    <t>960074632.0</t>
-  </si>
-  <si>
-    <t>994755983.0</t>
-  </si>
-  <si>
-    <t>998968140.0</t>
-  </si>
-  <si>
-    <t>940537629.0</t>
-  </si>
-  <si>
-    <t>987521246.0</t>
-  </si>
-  <si>
-    <t>942710912.0</t>
-  </si>
-  <si>
-    <t>912822629.0</t>
-  </si>
-  <si>
-    <t>944221639.0</t>
-  </si>
-  <si>
-    <t>996600249.0</t>
-  </si>
-  <si>
-    <t>916682356.0</t>
-  </si>
-  <si>
-    <t>984967429.0</t>
-  </si>
-  <si>
-    <t>935919069.0</t>
-  </si>
-  <si>
-    <t>961146100.0</t>
-  </si>
-  <si>
-    <t>931618890.0</t>
-  </si>
-  <si>
-    <t>973073926.0</t>
-  </si>
-  <si>
-    <t>929068199.0</t>
-  </si>
-  <si>
-    <t>937882335.0</t>
-  </si>
-  <si>
-    <t>930511836.0</t>
-  </si>
-  <si>
-    <t>981541464.0</t>
-  </si>
-  <si>
-    <t>965994074.0</t>
-  </si>
-  <si>
-    <t>911150982.0</t>
-  </si>
-  <si>
-    <t>902108613.0</t>
-  </si>
-  <si>
-    <t>978972520.0</t>
-  </si>
-  <si>
-    <t>915795912.0</t>
-  </si>
-  <si>
-    <t>917066860.0</t>
-  </si>
-  <si>
-    <t>970429648.0</t>
-  </si>
-  <si>
-    <t>943144927.0</t>
-  </si>
-  <si>
-    <t>971407132.0</t>
-  </si>
-  <si>
-    <t>926210440.0</t>
-  </si>
-  <si>
-    <t>906306523.0</t>
-  </si>
-  <si>
-    <t>981619723.0</t>
-  </si>
-  <si>
-    <t>976182475.0</t>
-  </si>
-  <si>
-    <t>970931253.0</t>
-  </si>
-  <si>
-    <t>926230799.0</t>
-  </si>
-  <si>
-    <t>973506206.0</t>
-  </si>
-  <si>
-    <t>918141918.0</t>
-  </si>
-  <si>
-    <t>977525475.0</t>
-  </si>
-  <si>
-    <t>937944924.0</t>
-  </si>
-  <si>
-    <t>988827157.0</t>
-  </si>
-  <si>
-    <t>928470114.0</t>
-  </si>
-  <si>
-    <t>971305351.0</t>
-  </si>
-  <si>
-    <t>925604471.0</t>
-  </si>
-  <si>
-    <t>927552245.0</t>
-  </si>
-  <si>
-    <t>951629430.0</t>
-  </si>
-  <si>
-    <t>919677517.0</t>
-  </si>
-  <si>
-    <t>978053761.0</t>
-  </si>
-  <si>
-    <t>919221011.0</t>
-  </si>
-  <si>
-    <t>988472733.0</t>
-  </si>
-  <si>
-    <t>900600681.0</t>
-  </si>
-  <si>
-    <t>902286474.0</t>
-  </si>
-  <si>
-    <t>994674572.0</t>
-  </si>
-  <si>
-    <t>914070636.0</t>
-  </si>
-  <si>
-    <t>939137664.0</t>
-  </si>
-  <si>
-    <t>934462854.0</t>
-  </si>
-  <si>
-    <t>988114876.0</t>
-  </si>
-  <si>
-    <t>915080622.0</t>
-  </si>
-  <si>
-    <t>968568812.0</t>
-  </si>
-  <si>
-    <t>935100934.0</t>
-  </si>
-  <si>
-    <t>971094301.0</t>
-  </si>
-  <si>
-    <t>950006362.0</t>
-  </si>
-  <si>
-    <t>949887683.0</t>
-  </si>
-  <si>
-    <t>931057048.0</t>
-  </si>
-  <si>
-    <t>900574917.0</t>
-  </si>
-  <si>
-    <t>959128590.0</t>
-  </si>
-  <si>
-    <t>951474686.0</t>
-  </si>
-  <si>
-    <t>907657874.0</t>
-  </si>
-  <si>
-    <t>923335889.0</t>
-  </si>
-  <si>
-    <t>978608291.0</t>
-  </si>
-  <si>
-    <t>936748293.0</t>
-  </si>
-  <si>
-    <t>972968294.0</t>
-  </si>
-  <si>
-    <t>954304521.0</t>
-  </si>
-  <si>
-    <t>974077650.0</t>
-  </si>
-  <si>
-    <t>918282414.0</t>
-  </si>
-  <si>
-    <t>916007157.0</t>
-  </si>
-  <si>
-    <t>962604482.0</t>
-  </si>
-  <si>
-    <t>989843798.0</t>
-  </si>
-  <si>
-    <t>947880978.0</t>
-  </si>
-  <si>
-    <t>920735192.0</t>
-  </si>
-  <si>
-    <t>934245978.0</t>
-  </si>
-  <si>
-    <t>923849800.0</t>
-  </si>
-  <si>
-    <t>902111816.0</t>
-  </si>
-  <si>
-    <t>944657454.0</t>
-  </si>
-  <si>
-    <t>952350085.0</t>
-  </si>
-  <si>
-    <t>959087155.0</t>
-  </si>
-  <si>
-    <t>902384682.0</t>
-  </si>
-  <si>
-    <t>995292291.0</t>
-  </si>
-  <si>
-    <t>930990121.0</t>
-  </si>
-  <si>
-    <t>944349953.0</t>
-  </si>
-  <si>
-    <t>970785832.0</t>
-  </si>
-  <si>
-    <t>960546328.0</t>
-  </si>
-  <si>
-    <t>941860410.0</t>
-  </si>
-  <si>
-    <t>974228523.0</t>
-  </si>
-  <si>
-    <t>967647007.0</t>
-  </si>
-  <si>
-    <t>914846459.0</t>
-  </si>
-  <si>
-    <t>980750941.0</t>
-  </si>
-  <si>
-    <t>954669621.0</t>
-  </si>
-  <si>
-    <t>966627443.0</t>
-  </si>
-  <si>
-    <t>916152121.0</t>
-  </si>
-  <si>
-    <t>931206584.0</t>
-  </si>
-  <si>
-    <t>943299426.0</t>
-  </si>
-  <si>
-    <t>910428523.0</t>
-  </si>
-  <si>
-    <t>935817531.0</t>
-  </si>
-  <si>
-    <t>969863362.0</t>
-  </si>
-  <si>
-    <t>932648878.0</t>
-  </si>
-  <si>
-    <t>991472609.0</t>
-  </si>
-  <si>
-    <t>909486966.0</t>
-  </si>
-  <si>
-    <t>911189417.0</t>
-  </si>
-  <si>
-    <t>922175376.0</t>
-  </si>
-  <si>
-    <t>960479259.0</t>
-  </si>
-  <si>
-    <t>990568166.0</t>
-  </si>
-  <si>
-    <t>928051581.0</t>
-  </si>
-  <si>
-    <t>962576243.0</t>
-  </si>
-  <si>
-    <t>973353085.0</t>
-  </si>
-  <si>
-    <t>972146133.0</t>
-  </si>
-  <si>
-    <t>949160910.0</t>
-  </si>
-  <si>
-    <t>936888901.0</t>
-  </si>
-  <si>
-    <t>965487225.0</t>
-  </si>
-  <si>
-    <t>916101494.0</t>
+    <t>9963328857</t>
+  </si>
+  <si>
+    <t>9356588211</t>
+  </si>
+  <si>
+    <t>9361086998</t>
+  </si>
+  <si>
+    <t>9797003451</t>
+  </si>
+  <si>
+    <t>9789888197</t>
+  </si>
+  <si>
+    <t>9798353416</t>
+  </si>
+  <si>
+    <t>9944342254</t>
+  </si>
+  <si>
+    <t>9582178044</t>
+  </si>
+  <si>
+    <t>9434324579</t>
+  </si>
+  <si>
+    <t>9970136234</t>
+  </si>
+  <si>
+    <t>9926264919</t>
+  </si>
+  <si>
+    <t>9372084765</t>
+  </si>
+  <si>
+    <t>9146226667</t>
+  </si>
+  <si>
+    <t>9508555926</t>
+  </si>
+  <si>
+    <t>9057955337</t>
+  </si>
+  <si>
+    <t>9565754387</t>
+  </si>
+  <si>
+    <t>9931000068</t>
+  </si>
+  <si>
+    <t>9099367298</t>
+  </si>
+  <si>
+    <t>9208244278</t>
+  </si>
+  <si>
+    <t>9361588059</t>
+  </si>
+  <si>
+    <t>9307253811</t>
+  </si>
+  <si>
+    <t>9722400163</t>
+  </si>
+  <si>
+    <t>9801128302</t>
+  </si>
+  <si>
+    <t>9728527807</t>
+  </si>
+  <si>
+    <t>9325574406</t>
+  </si>
+  <si>
+    <t>9414523997</t>
+  </si>
+  <si>
+    <t>9582601138</t>
+  </si>
+  <si>
+    <t>9593610295</t>
+  </si>
+  <si>
+    <t>9885672896</t>
+  </si>
+  <si>
+    <t>9100105996</t>
+  </si>
+  <si>
+    <t>9654041148</t>
+  </si>
+  <si>
+    <t>9974463535</t>
+  </si>
+  <si>
+    <t>9429351102</t>
+  </si>
+  <si>
+    <t>9946724970</t>
+  </si>
+  <si>
+    <t>9994171355</t>
+  </si>
+  <si>
+    <t>9821093269</t>
+  </si>
+  <si>
+    <t>9154174891</t>
+  </si>
+  <si>
+    <t>9177092536</t>
+  </si>
+  <si>
+    <t>9564031034</t>
+  </si>
+  <si>
+    <t>9310538332</t>
+  </si>
+  <si>
+    <t>9340791546</t>
+  </si>
+  <si>
+    <t>9009717911</t>
+  </si>
+  <si>
+    <t>9545172655</t>
+  </si>
+  <si>
+    <t>9714650954</t>
+  </si>
+  <si>
+    <t>9229485462</t>
+  </si>
+  <si>
+    <t>9643198043</t>
+  </si>
+  <si>
+    <t>9521350370</t>
+  </si>
+  <si>
+    <t>9755209297</t>
+  </si>
+  <si>
+    <t>9447540050</t>
+  </si>
+  <si>
+    <t>9577650655</t>
+  </si>
+  <si>
+    <t>9766553533</t>
+  </si>
+  <si>
+    <t>9231963524</t>
+  </si>
+  <si>
+    <t>9072484039</t>
+  </si>
+  <si>
+    <t>9290522065</t>
+  </si>
+  <si>
+    <t>9419775198</t>
+  </si>
+  <si>
+    <t>9204861521</t>
+  </si>
+  <si>
+    <t>9836116802</t>
+  </si>
+  <si>
+    <t>9258041104</t>
+  </si>
+  <si>
+    <t>9190099847</t>
+  </si>
+  <si>
+    <t>9335044087</t>
+  </si>
+  <si>
+    <t>9679724418</t>
+  </si>
+  <si>
+    <t>9822147704</t>
+  </si>
+  <si>
+    <t>9821431342</t>
+  </si>
+  <si>
+    <t>9829452369</t>
+  </si>
+  <si>
+    <t>9172127076</t>
+  </si>
+  <si>
+    <t>9965708094</t>
+  </si>
+  <si>
+    <t>9323860850</t>
+  </si>
+  <si>
+    <t>9592433849</t>
+  </si>
+  <si>
+    <t>9572703383</t>
+  </si>
+  <si>
+    <t>9415198517</t>
+  </si>
+  <si>
+    <t>9600228652</t>
+  </si>
+  <si>
+    <t>9661292387</t>
+  </si>
+  <si>
+    <t>9055962758</t>
+  </si>
+  <si>
+    <t>9717473224</t>
+  </si>
+  <si>
+    <t>9603094774</t>
+  </si>
+  <si>
+    <t>946124538</t>
+  </si>
+  <si>
+    <t>962835607</t>
+  </si>
+  <si>
+    <t>941343801</t>
+  </si>
+  <si>
+    <t>935450839</t>
+  </si>
+  <si>
+    <t>975093395</t>
+  </si>
+  <si>
+    <t>997885213</t>
+  </si>
+  <si>
+    <t>906095226</t>
+  </si>
+  <si>
+    <t>925184794</t>
+  </si>
+  <si>
+    <t>953734712</t>
+  </si>
+  <si>
+    <t>984379019</t>
+  </si>
+  <si>
+    <t>909814072</t>
+  </si>
+  <si>
+    <t>954547724</t>
+  </si>
+  <si>
+    <t>974722376</t>
+  </si>
+  <si>
+    <t>946033879</t>
+  </si>
+  <si>
+    <t>957670956</t>
+  </si>
+  <si>
+    <t>921846698</t>
+  </si>
+  <si>
+    <t>972444328</t>
+  </si>
+  <si>
+    <t>924639024</t>
+  </si>
+  <si>
+    <t>993612937</t>
+  </si>
+  <si>
+    <t>939812052</t>
+  </si>
+  <si>
+    <t>961628535</t>
+  </si>
+  <si>
+    <t>993281701</t>
+  </si>
+  <si>
+    <t>928202868</t>
+  </si>
+  <si>
+    <t>984846103</t>
+  </si>
+  <si>
+    <t>933349956</t>
+  </si>
+  <si>
+    <t>931589108</t>
+  </si>
+  <si>
+    <t>905424321</t>
+  </si>
+  <si>
+    <t>906470535</t>
+  </si>
+  <si>
+    <t>998569462</t>
+  </si>
+  <si>
+    <t>962403986</t>
+  </si>
+  <si>
+    <t>989305757</t>
+  </si>
+  <si>
+    <t>995179807</t>
+  </si>
+  <si>
+    <t>933230994</t>
+  </si>
+  <si>
+    <t>942059266</t>
+  </si>
+  <si>
+    <t>955258299</t>
+  </si>
+  <si>
+    <t>977436473</t>
+  </si>
+  <si>
+    <t>973436383</t>
+  </si>
+  <si>
+    <t>921112944</t>
+  </si>
+  <si>
+    <t>974492741</t>
+  </si>
+  <si>
+    <t>922829971</t>
+  </si>
+  <si>
+    <t>916414064</t>
+  </si>
+  <si>
+    <t>999728049</t>
+  </si>
+  <si>
+    <t>928198708</t>
+  </si>
+  <si>
+    <t>940784099</t>
+  </si>
+  <si>
+    <t>964570002</t>
+  </si>
+  <si>
+    <t>947122514</t>
+  </si>
+  <si>
+    <t>961512368</t>
+  </si>
+  <si>
+    <t>900684909</t>
+  </si>
+  <si>
+    <t>922030282</t>
+  </si>
+  <si>
+    <t>948488685</t>
+  </si>
+  <si>
+    <t>967702453</t>
+  </si>
+  <si>
+    <t>972702528</t>
+  </si>
+  <si>
+    <t>983667348</t>
+  </si>
+  <si>
+    <t>961894434</t>
+  </si>
+  <si>
+    <t>992419516</t>
+  </si>
+  <si>
+    <t>911510020</t>
+  </si>
+  <si>
+    <t>917498442</t>
+  </si>
+  <si>
+    <t>981021516</t>
+  </si>
+  <si>
+    <t>981833577</t>
+  </si>
+  <si>
+    <t>982835544</t>
+  </si>
+  <si>
+    <t>978811733</t>
+  </si>
+  <si>
+    <t>996466488</t>
+  </si>
+  <si>
+    <t>911297164</t>
+  </si>
+  <si>
+    <t>984762348</t>
+  </si>
+  <si>
+    <t>981487015</t>
+  </si>
+  <si>
+    <t>974025470</t>
+  </si>
+  <si>
+    <t>922082673</t>
+  </si>
+  <si>
+    <t>906523792</t>
+  </si>
+  <si>
+    <t>950637159</t>
+  </si>
+  <si>
+    <t>931083962</t>
+  </si>
+  <si>
+    <t>979794608</t>
+  </si>
+  <si>
+    <t>953209682</t>
+  </si>
+  <si>
+    <t>960166915</t>
+  </si>
+  <si>
+    <t>945127649</t>
+  </si>
+  <si>
+    <t>976215705</t>
+  </si>
+  <si>
+    <t>923114249</t>
+  </si>
+  <si>
+    <t>939161098</t>
+  </si>
+  <si>
+    <t>977872488</t>
+  </si>
+  <si>
+    <t>994312185</t>
+  </si>
+  <si>
+    <t>924712734</t>
+  </si>
+  <si>
+    <t>996578377</t>
+  </si>
+  <si>
+    <t>975771224</t>
+  </si>
+  <si>
+    <t>996661171</t>
+  </si>
+  <si>
+    <t>953505042</t>
+  </si>
+  <si>
+    <t>900227034</t>
+  </si>
+  <si>
+    <t>944640540</t>
+  </si>
+  <si>
+    <t>908253646</t>
+  </si>
+  <si>
+    <t>957734704</t>
+  </si>
+  <si>
+    <t>979455416</t>
+  </si>
+  <si>
+    <t>990378971</t>
+  </si>
+  <si>
+    <t>949490356</t>
+  </si>
+  <si>
+    <t>919249545</t>
+  </si>
+  <si>
+    <t>994181422</t>
+  </si>
+  <si>
+    <t>947095333</t>
+  </si>
+  <si>
+    <t>936622831</t>
+  </si>
+  <si>
+    <t>956249006</t>
+  </si>
+  <si>
+    <t>909782193</t>
+  </si>
+  <si>
+    <t>987285889</t>
+  </si>
+  <si>
+    <t>969401798</t>
+  </si>
+  <si>
+    <t>900920110</t>
+  </si>
+  <si>
+    <t>971743276</t>
+  </si>
+  <si>
+    <t>930858326</t>
+  </si>
+  <si>
+    <t>996637766</t>
+  </si>
+  <si>
+    <t>943486875</t>
+  </si>
+  <si>
+    <t>901409181</t>
+  </si>
+  <si>
+    <t>966331488</t>
+  </si>
+  <si>
+    <t>980929739</t>
+  </si>
+  <si>
+    <t>926450371</t>
+  </si>
+  <si>
+    <t>957411371</t>
+  </si>
+  <si>
+    <t>977714417</t>
+  </si>
+  <si>
+    <t>979949407</t>
+  </si>
+  <si>
+    <t>941302215</t>
+  </si>
+  <si>
+    <t>954162237</t>
+  </si>
+  <si>
+    <t>999899531</t>
+  </si>
+  <si>
+    <t>930017059</t>
+  </si>
+  <si>
+    <t>909240206</t>
+  </si>
+  <si>
+    <t>994363497</t>
+  </si>
+  <si>
+    <t>976574705</t>
+  </si>
+  <si>
+    <t>962172389</t>
+  </si>
+  <si>
+    <t>918245280</t>
+  </si>
+  <si>
+    <t>908097305</t>
+  </si>
+  <si>
+    <t>900751435</t>
+  </si>
+  <si>
+    <t>900469686</t>
+  </si>
+  <si>
+    <t>976794945</t>
+  </si>
+  <si>
+    <t>977538222</t>
+  </si>
+  <si>
+    <t>913299646</t>
+  </si>
+  <si>
+    <t>962981016</t>
+  </si>
+  <si>
+    <t>928293962</t>
+  </si>
+  <si>
+    <t>975057652</t>
+  </si>
+  <si>
+    <t>925004823</t>
+  </si>
+  <si>
+    <t>982469340</t>
+  </si>
+  <si>
+    <t>936851597</t>
+  </si>
+  <si>
+    <t>915255533</t>
+  </si>
+  <si>
+    <t>951464940</t>
+  </si>
+  <si>
+    <t>945736797</t>
+  </si>
+  <si>
+    <t>972427437</t>
+  </si>
+  <si>
+    <t>921788865</t>
+  </si>
+  <si>
+    <t>983015714</t>
+  </si>
+  <si>
+    <t>956833844</t>
+  </si>
+  <si>
+    <t>991388633</t>
+  </si>
+  <si>
+    <t>944145805</t>
+  </si>
+  <si>
+    <t>998935572</t>
+  </si>
+  <si>
+    <t>927522747</t>
+  </si>
+  <si>
+    <t>983420058</t>
+  </si>
+  <si>
+    <t>905850843</t>
+  </si>
+  <si>
+    <t>917186233</t>
+  </si>
+  <si>
+    <t>933703509</t>
+  </si>
+  <si>
+    <t>972721384</t>
+  </si>
+  <si>
+    <t>915573607</t>
+  </si>
+  <si>
+    <t>985495241</t>
+  </si>
+  <si>
+    <t>903832706</t>
+  </si>
+  <si>
+    <t>994654379</t>
+  </si>
+  <si>
+    <t>986811576</t>
+  </si>
+  <si>
+    <t>993412538</t>
+  </si>
+  <si>
+    <t>945739148</t>
+  </si>
+  <si>
+    <t>947920853</t>
+  </si>
+  <si>
+    <t>993121191</t>
+  </si>
+  <si>
+    <t>943632711</t>
+  </si>
+  <si>
+    <t>994229064</t>
+  </si>
+  <si>
+    <t>955854059</t>
+  </si>
+  <si>
+    <t>998506438</t>
+  </si>
+  <si>
+    <t>942765077</t>
+  </si>
+  <si>
+    <t>979573766</t>
+  </si>
+  <si>
+    <t>991871563</t>
+  </si>
+  <si>
+    <t>901298128</t>
+  </si>
+  <si>
+    <t>950419950</t>
+  </si>
+  <si>
+    <t>955095263</t>
+  </si>
+  <si>
+    <t>975343626</t>
+  </si>
+  <si>
+    <t>980288218</t>
+  </si>
+  <si>
+    <t>982159252</t>
+  </si>
+  <si>
+    <t>987521801</t>
+  </si>
+  <si>
+    <t>956646364</t>
+  </si>
+  <si>
+    <t>945214389</t>
+  </si>
+  <si>
+    <t>959034520</t>
+  </si>
+  <si>
+    <t>968181754</t>
+  </si>
+  <si>
+    <t>992121692</t>
+  </si>
+  <si>
+    <t>983680136</t>
+  </si>
+  <si>
+    <t>915033223</t>
+  </si>
+  <si>
+    <t>978604308</t>
+  </si>
+  <si>
+    <t>943676001</t>
+  </si>
+  <si>
+    <t>990001194</t>
+  </si>
+  <si>
+    <t>987645357</t>
+  </si>
+  <si>
+    <t>976413217</t>
+  </si>
+  <si>
+    <t>962448773</t>
+  </si>
+  <si>
+    <t>911963239</t>
+  </si>
+  <si>
+    <t>933095994</t>
+  </si>
+  <si>
+    <t>999045285</t>
+  </si>
+  <si>
+    <t>983637467</t>
+  </si>
+  <si>
+    <t>968359918</t>
+  </si>
+  <si>
+    <t>980353593</t>
+  </si>
+  <si>
+    <t>981390288</t>
+  </si>
+  <si>
+    <t>938275291</t>
+  </si>
+  <si>
+    <t>963628654</t>
+  </si>
+  <si>
+    <t>974199193</t>
+  </si>
+  <si>
+    <t>929625406</t>
+  </si>
+  <si>
+    <t>984678319</t>
+  </si>
+  <si>
+    <t>949868104</t>
+  </si>
+  <si>
+    <t>987374080</t>
+  </si>
+  <si>
+    <t>994709426</t>
+  </si>
+  <si>
+    <t>914133080</t>
+  </si>
+  <si>
+    <t>982018545</t>
+  </si>
+  <si>
+    <t>952435902</t>
+  </si>
+  <si>
+    <t>925462804</t>
+  </si>
+  <si>
+    <t>953012423</t>
+  </si>
+  <si>
+    <t>957965723</t>
+  </si>
+  <si>
+    <t>904554881</t>
+  </si>
+  <si>
+    <t>924855292</t>
+  </si>
+  <si>
+    <t>947482820</t>
+  </si>
+  <si>
+    <t>926842858</t>
+  </si>
+  <si>
+    <t>903643626</t>
+  </si>
+  <si>
+    <t>948173982</t>
+  </si>
+  <si>
+    <t>974311105</t>
+  </si>
+  <si>
+    <t>923522302</t>
+  </si>
+  <si>
+    <t>936986483</t>
+  </si>
+  <si>
+    <t>906902137</t>
+  </si>
+  <si>
+    <t>909299250</t>
+  </si>
+  <si>
+    <t>972539096</t>
+  </si>
+  <si>
+    <t>994222117</t>
+  </si>
+  <si>
+    <t>979047109</t>
+  </si>
+  <si>
+    <t>995133408</t>
+  </si>
+  <si>
+    <t>925211569</t>
+  </si>
+  <si>
+    <t>982678014</t>
+  </si>
+  <si>
+    <t>945717114</t>
+  </si>
+  <si>
+    <t>948290324</t>
+  </si>
+  <si>
+    <t>948888931</t>
+  </si>
+  <si>
+    <t>975290701</t>
+  </si>
+  <si>
+    <t>915955811</t>
+  </si>
+  <si>
+    <t>996037504</t>
+  </si>
+  <si>
+    <t>947520728</t>
+  </si>
+  <si>
+    <t>985250974</t>
+  </si>
+  <si>
+    <t>985862355</t>
+  </si>
+  <si>
+    <t>978225786</t>
+  </si>
+  <si>
+    <t>960829333</t>
+  </si>
+  <si>
+    <t>930722019</t>
+  </si>
+  <si>
+    <t>918448213</t>
+  </si>
+  <si>
+    <t>926114407</t>
+  </si>
+  <si>
+    <t>938243576</t>
+  </si>
+  <si>
+    <t>957033412</t>
+  </si>
+  <si>
+    <t>945614989</t>
+  </si>
+  <si>
+    <t>964138090</t>
+  </si>
+  <si>
+    <t>931425387</t>
+  </si>
+  <si>
+    <t>997785302</t>
+  </si>
+  <si>
+    <t>910080861</t>
+  </si>
+  <si>
+    <t>983419104</t>
+  </si>
+  <si>
+    <t>931596636</t>
+  </si>
+  <si>
+    <t>948069148</t>
+  </si>
+  <si>
+    <t>952079041</t>
+  </si>
+  <si>
+    <t>946353479</t>
+  </si>
+  <si>
+    <t>969663238</t>
+  </si>
+  <si>
+    <t>900644701</t>
+  </si>
+  <si>
+    <t>921117208</t>
+  </si>
+  <si>
+    <t>986962405</t>
+  </si>
+  <si>
+    <t>916217602</t>
+  </si>
+  <si>
+    <t>997928736</t>
+  </si>
+  <si>
+    <t>935679417</t>
+  </si>
+  <si>
+    <t>934797218</t>
+  </si>
+  <si>
+    <t>973708438</t>
+  </si>
+  <si>
+    <t>958165857</t>
+  </si>
+  <si>
+    <t>988236906</t>
+  </si>
+  <si>
+    <t>962106011</t>
+  </si>
+  <si>
+    <t>923478573</t>
+  </si>
+  <si>
+    <t>973330453</t>
+  </si>
+  <si>
+    <t>932737867</t>
+  </si>
+  <si>
+    <t>994059492</t>
+  </si>
+  <si>
+    <t>962824006</t>
+  </si>
+  <si>
+    <t>919920646</t>
+  </si>
+  <si>
+    <t>928585204</t>
+  </si>
+  <si>
+    <t>990144186</t>
+  </si>
+  <si>
+    <t>970485367</t>
+  </si>
+  <si>
+    <t>959135173</t>
+  </si>
+  <si>
+    <t>950005162</t>
+  </si>
+  <si>
+    <t>988111341</t>
+  </si>
+  <si>
+    <t>990928553</t>
+  </si>
+  <si>
+    <t>976211890</t>
+  </si>
+  <si>
+    <t>954100274</t>
+  </si>
+  <si>
+    <t>986604970</t>
+  </si>
+  <si>
+    <t>907527977</t>
+  </si>
+  <si>
+    <t>907396436</t>
+  </si>
+  <si>
+    <t>960792738</t>
+  </si>
+  <si>
+    <t>974524473</t>
+  </si>
+  <si>
+    <t>970500756</t>
+  </si>
+  <si>
+    <t>908498885</t>
+  </si>
+  <si>
+    <t>915195406</t>
+  </si>
+  <si>
+    <t>993815342</t>
+  </si>
+  <si>
+    <t>950512388</t>
+  </si>
+  <si>
+    <t>927591313</t>
+  </si>
+  <si>
+    <t>967593914</t>
+  </si>
+  <si>
+    <t>905547507</t>
+  </si>
+  <si>
+    <t>998880567</t>
+  </si>
+  <si>
+    <t>983597301</t>
+  </si>
+  <si>
+    <t>912380626</t>
+  </si>
+  <si>
+    <t>992841943</t>
+  </si>
+  <si>
+    <t>901124923</t>
+  </si>
+  <si>
+    <t>962820826</t>
+  </si>
+  <si>
+    <t>961325416</t>
+  </si>
+  <si>
+    <t>962968927</t>
+  </si>
+  <si>
+    <t>900977887</t>
+  </si>
+  <si>
+    <t>927505747</t>
+  </si>
+  <si>
+    <t>967296837</t>
+  </si>
+  <si>
+    <t>972411251</t>
+  </si>
+  <si>
+    <t>916503535</t>
+  </si>
+  <si>
+    <t>914778722</t>
+  </si>
+  <si>
+    <t>987399464</t>
+  </si>
+  <si>
+    <t>929873779</t>
+  </si>
+  <si>
+    <t>930342446</t>
+  </si>
+  <si>
+    <t>901004077</t>
+  </si>
+  <si>
+    <t>946725832</t>
+  </si>
+  <si>
+    <t>962064803</t>
+  </si>
+  <si>
+    <t>963575058</t>
+  </si>
+  <si>
+    <t>947135034</t>
+  </si>
+  <si>
+    <t>947310620</t>
+  </si>
+  <si>
+    <t>960117771</t>
+  </si>
+  <si>
+    <t>936167768</t>
+  </si>
+  <si>
+    <t>976419373</t>
+  </si>
+  <si>
+    <t>931254124</t>
+  </si>
+  <si>
+    <t>929110523</t>
+  </si>
+  <si>
+    <t>938935506</t>
+  </si>
+  <si>
+    <t>990053118</t>
+  </si>
+  <si>
+    <t>913462610</t>
+  </si>
+  <si>
+    <t>923077847</t>
+  </si>
+  <si>
+    <t>934478918</t>
+  </si>
+  <si>
+    <t>908328199</t>
+  </si>
+  <si>
+    <t>973136276</t>
+  </si>
+  <si>
+    <t>988221431</t>
+  </si>
+  <si>
+    <t>939482896</t>
+  </si>
+  <si>
+    <t>929927948</t>
+  </si>
+  <si>
+    <t>991380457</t>
+  </si>
+  <si>
+    <t>917438385</t>
+  </si>
+  <si>
+    <t>914714270</t>
+  </si>
+  <si>
+    <t>951885434</t>
+  </si>
+  <si>
+    <t>962134662</t>
+  </si>
+  <si>
+    <t>973511239</t>
+  </si>
+  <si>
+    <t>926680761</t>
+  </si>
+  <si>
+    <t>929639469</t>
+  </si>
+  <si>
+    <t>900696177</t>
+  </si>
+  <si>
+    <t>940824386</t>
+  </si>
+  <si>
+    <t>904674105</t>
+  </si>
+  <si>
+    <t>926230630</t>
+  </si>
+  <si>
+    <t>968749682</t>
+  </si>
+  <si>
+    <t>951346117</t>
+  </si>
+  <si>
+    <t>917164924</t>
+  </si>
+  <si>
+    <t>945875028</t>
+  </si>
+  <si>
+    <t>983149403</t>
+  </si>
+  <si>
+    <t>998956431</t>
+  </si>
+  <si>
+    <t>981212833</t>
+  </si>
+  <si>
+    <t>930910529</t>
+  </si>
+  <si>
+    <t>924815901</t>
+  </si>
+  <si>
+    <t>920814795</t>
+  </si>
+  <si>
+    <t>912066831</t>
+  </si>
+  <si>
+    <t>961638291</t>
+  </si>
+  <si>
+    <t>927489621</t>
+  </si>
+  <si>
+    <t>995942688</t>
+  </si>
+  <si>
+    <t>960327503</t>
+  </si>
+  <si>
+    <t>929879465</t>
+  </si>
+  <si>
+    <t>964251705</t>
+  </si>
+  <si>
+    <t>916721813</t>
+  </si>
+  <si>
+    <t>998872132</t>
+  </si>
+  <si>
+    <t>934106586</t>
+  </si>
+  <si>
+    <t>952501545</t>
+  </si>
+  <si>
+    <t>960074632</t>
+  </si>
+  <si>
+    <t>994755983</t>
+  </si>
+  <si>
+    <t>998968140</t>
+  </si>
+  <si>
+    <t>940537629</t>
+  </si>
+  <si>
+    <t>987521246</t>
+  </si>
+  <si>
+    <t>942710912</t>
+  </si>
+  <si>
+    <t>912822629</t>
+  </si>
+  <si>
+    <t>944221639</t>
+  </si>
+  <si>
+    <t>996600249</t>
+  </si>
+  <si>
+    <t>916682356</t>
+  </si>
+  <si>
+    <t>984967429</t>
+  </si>
+  <si>
+    <t>935919069</t>
+  </si>
+  <si>
+    <t>961146100</t>
+  </si>
+  <si>
+    <t>931618890</t>
+  </si>
+  <si>
+    <t>973073926</t>
+  </si>
+  <si>
+    <t>929068199</t>
+  </si>
+  <si>
+    <t>937882335</t>
+  </si>
+  <si>
+    <t>930511836</t>
+  </si>
+  <si>
+    <t>981541464</t>
+  </si>
+  <si>
+    <t>965994074</t>
+  </si>
+  <si>
+    <t>911150982</t>
+  </si>
+  <si>
+    <t>902108613</t>
+  </si>
+  <si>
+    <t>978972520</t>
+  </si>
+  <si>
+    <t>915795912</t>
+  </si>
+  <si>
+    <t>917066860</t>
+  </si>
+  <si>
+    <t>970429648</t>
+  </si>
+  <si>
+    <t>943144927</t>
+  </si>
+  <si>
+    <t>971407132</t>
+  </si>
+  <si>
+    <t>926210440</t>
+  </si>
+  <si>
+    <t>906306523</t>
+  </si>
+  <si>
+    <t>981619723</t>
+  </si>
+  <si>
+    <t>976182475</t>
+  </si>
+  <si>
+    <t>970931253</t>
+  </si>
+  <si>
+    <t>926230799</t>
+  </si>
+  <si>
+    <t>973506206</t>
+  </si>
+  <si>
+    <t>918141918</t>
+  </si>
+  <si>
+    <t>977525475</t>
+  </si>
+  <si>
+    <t>937944924</t>
+  </si>
+  <si>
+    <t>988827157</t>
+  </si>
+  <si>
+    <t>928470114</t>
+  </si>
+  <si>
+    <t>971305351</t>
+  </si>
+  <si>
+    <t>925604471</t>
+  </si>
+  <si>
+    <t>927552245</t>
+  </si>
+  <si>
+    <t>951629430</t>
+  </si>
+  <si>
+    <t>919677517</t>
+  </si>
+  <si>
+    <t>978053761</t>
+  </si>
+  <si>
+    <t>919221011</t>
+  </si>
+  <si>
+    <t>988472733</t>
+  </si>
+  <si>
+    <t>900600681</t>
+  </si>
+  <si>
+    <t>902286474</t>
+  </si>
+  <si>
+    <t>994674572</t>
+  </si>
+  <si>
+    <t>914070636</t>
+  </si>
+  <si>
+    <t>939137664</t>
+  </si>
+  <si>
+    <t>934462854</t>
+  </si>
+  <si>
+    <t>988114876</t>
+  </si>
+  <si>
+    <t>915080622</t>
+  </si>
+  <si>
+    <t>968568812</t>
+  </si>
+  <si>
+    <t>935100934</t>
+  </si>
+  <si>
+    <t>971094301</t>
+  </si>
+  <si>
+    <t>950006362</t>
+  </si>
+  <si>
+    <t>949887683</t>
+  </si>
+  <si>
+    <t>931057048</t>
+  </si>
+  <si>
+    <t>900574917</t>
+  </si>
+  <si>
+    <t>959128590</t>
+  </si>
+  <si>
+    <t>951474686</t>
+  </si>
+  <si>
+    <t>907657874</t>
+  </si>
+  <si>
+    <t>923335889</t>
+  </si>
+  <si>
+    <t>978608291</t>
+  </si>
+  <si>
+    <t>936748293</t>
+  </si>
+  <si>
+    <t>972968294</t>
+  </si>
+  <si>
+    <t>954304521</t>
+  </si>
+  <si>
+    <t>974077650</t>
+  </si>
+  <si>
+    <t>918282414</t>
+  </si>
+  <si>
+    <t>916007157</t>
+  </si>
+  <si>
+    <t>962604482</t>
+  </si>
+  <si>
+    <t>989843798</t>
+  </si>
+  <si>
+    <t>947880978</t>
+  </si>
+  <si>
+    <t>920735192</t>
+  </si>
+  <si>
+    <t>934245978</t>
+  </si>
+  <si>
+    <t>923849800</t>
+  </si>
+  <si>
+    <t>902111816</t>
+  </si>
+  <si>
+    <t>944657454</t>
+  </si>
+  <si>
+    <t>952350085</t>
+  </si>
+  <si>
+    <t>959087155</t>
+  </si>
+  <si>
+    <t>902384682</t>
+  </si>
+  <si>
+    <t>995292291</t>
+  </si>
+  <si>
+    <t>930990121</t>
+  </si>
+  <si>
+    <t>944349953</t>
+  </si>
+  <si>
+    <t>970785832</t>
+  </si>
+  <si>
+    <t>960546328</t>
+  </si>
+  <si>
+    <t>941860410</t>
+  </si>
+  <si>
+    <t>974228523</t>
+  </si>
+  <si>
+    <t>967647007</t>
+  </si>
+  <si>
+    <t>914846459</t>
+  </si>
+  <si>
+    <t>980750941</t>
+  </si>
+  <si>
+    <t>954669621</t>
+  </si>
+  <si>
+    <t>966627443</t>
+  </si>
+  <si>
+    <t>916152121</t>
+  </si>
+  <si>
+    <t>931206584</t>
+  </si>
+  <si>
+    <t>943299426</t>
+  </si>
+  <si>
+    <t>910428523</t>
+  </si>
+  <si>
+    <t>935817531</t>
+  </si>
+  <si>
+    <t>969863362</t>
+  </si>
+  <si>
+    <t>932648878</t>
+  </si>
+  <si>
+    <t>991472609</t>
+  </si>
+  <si>
+    <t>909486966</t>
+  </si>
+  <si>
+    <t>911189417</t>
+  </si>
+  <si>
+    <t>922175376</t>
+  </si>
+  <si>
+    <t>960479259</t>
+  </si>
+  <si>
+    <t>990568166</t>
+  </si>
+  <si>
+    <t>928051581</t>
+  </si>
+  <si>
+    <t>962576243</t>
+  </si>
+  <si>
+    <t>973353085</t>
+  </si>
+  <si>
+    <t>972146133</t>
+  </si>
+  <si>
+    <t>949160910</t>
+  </si>
+  <si>
+    <t>936888901</t>
+  </si>
+  <si>
+    <t>965487225</t>
+  </si>
+  <si>
+    <t>916101494</t>
   </si>
   <si>
     <t>VALIDO</t>
